--- a/data/case1/15/Qlm1_13.xlsx
+++ b/data/case1/15/Qlm1_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.11794826612148057</v>
+        <v>-0.12818632190988666</v>
       </c>
       <c r="B1" s="0">
-        <v>0.11790484605748475</v>
+        <v>0.12811632393731287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.10559454017849301</v>
+        <v>-0.10600997596340456</v>
       </c>
       <c r="B2" s="0">
-        <v>0.10541495173632143</v>
+        <v>0.10580480075489884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.055713902977503338</v>
+        <v>-0.073090398803492107</v>
       </c>
       <c r="B3" s="0">
-        <v>0.055506914372086769</v>
+        <v>0.072945642980647207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.047506914394080724</v>
+        <v>-0.064945642997907171</v>
       </c>
       <c r="B4" s="0">
-        <v>0.047160654177559991</v>
+        <v>0.064408285411474253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.044160654188290849</v>
+        <v>-0.061408285420397668</v>
       </c>
       <c r="B5" s="0">
-        <v>0.042994930879133975</v>
+        <v>0.059572227854674864</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.011005779817253369</v>
+        <v>-0.035181288363704155</v>
       </c>
       <c r="B6" s="0">
-        <v>0.010903134688732052</v>
+        <v>0.034748407738813825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.00090313471775216314</v>
+        <v>-0.024748407762665625</v>
       </c>
       <c r="B7" s="0">
-        <v>0.00088999214637386359</v>
+        <v>0.024646946890392485</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0091100078245847094</v>
+        <v>-0.014646946914812276</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0091182773592093369</v>
+        <v>0.014477483758255971</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.011118277349554173</v>
+        <v>-0.012477483768626563</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.011124717918308935</v>
+        <v>0.012342507374074163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.013124717909047234</v>
+        <v>-0.010342507384919486</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.013124777272812693</v>
+        <v>0.010333705941601323</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.016124777261238954</v>
+        <v>-0.013537530512276241</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.016126967139548753</v>
+        <v>0.013516096404158517</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020849497602059675</v>
+        <v>-0.010016096417910791</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020663922674728052</v>
+        <v>0.009863374797406177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017163922688660627</v>
+        <v>-0.0063633748116931343</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017079198258500128</v>
+        <v>0.0062952705209236015</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090791982835289886</v>
+        <v>0.0017047294564305204</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090513325347858498</v>
+        <v>-0.0017269342220940231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.008051332543338674</v>
+        <v>-0.0080535678444704217</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080333218456445366</v>
+        <v>0.0080347452209048598</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060333218568002778</v>
+        <v>-0.0060347452327667028</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060035365173205513</v>
+        <v>0.0060037221338169466</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040035365287831581</v>
+        <v>-0.0040037221459643391</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999836686229</v>
+        <v>0.0039999999841100475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0063103058935567446</v>
+        <v>-0.016106347985207492</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0062891406967402474</v>
+        <v>0.016091868351406191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0022891407066261138</v>
+        <v>-0.012091868359050739</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0021636082242122434</v>
+        <v>0.012017182703600415</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080171018463133237</v>
+        <v>-0.0080171827118373784</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080057099033119528</v>
+        <v>0.0080057087990166309</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057099134873653</v>
+        <v>-0.0040057088073286451</v>
       </c>
       <c r="B21" s="0">
-        <v>0.003999999989747316</v>
+        <v>0.003999999991604497</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045701048770533603</v>
+        <v>-0.028714401960609592</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045490812777126521</v>
+        <v>0.028431125512870636</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040490812791952102</v>
+        <v>-0.040493416211369926</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097471930315542</v>
+        <v>0.040098003022554174</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097471982250426</v>
+        <v>-0.020098003062550163</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999947412306</v>
+        <v>0.019999999959466663</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.029989151071760034</v>
+        <v>-0.022390939499958407</v>
       </c>
       <c r="B25" s="0">
-        <v>0.029919313130882585</v>
+        <v>0.022337136006626679</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.027419313142155843</v>
+        <v>-0.019837136016624513</v>
       </c>
       <c r="B26" s="0">
-        <v>0.027332970045145899</v>
+        <v>0.019771881668303237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.024832970056694048</v>
+        <v>-0.01727188167849647</v>
       </c>
       <c r="B27" s="0">
-        <v>0.024344715019210206</v>
+        <v>0.016910737195145131</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.022344715030639506</v>
+        <v>-0.014910737205113378</v>
       </c>
       <c r="B28" s="0">
-        <v>0.022028447865998224</v>
+        <v>0.014682629219992194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.015028447890100161</v>
+        <v>-0.0076826292395315576</v>
       </c>
       <c r="B29" s="0">
-        <v>0.01494668088696649</v>
+        <v>0.0076271685843254389</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.040218959309992641</v>
+        <v>0.052372831299137612</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.040474539866025783</v>
+        <v>-0.052634545024604407</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.047474539843229024</v>
+        <v>0.059634545006710837</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.047555309996049289</v>
+        <v>-0.059730942542907783</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.057555309966691226</v>
+        <v>-0.0040015814419742668</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.05767734634055266</v>
+        <v>0.0039999999880784287</v>
       </c>
     </row>
   </sheetData>
